--- a/project/excel/zebrafish_toxicology_atlas_schema.xlsx
+++ b/project/excel/zebrafish_toxicology_atlas_schema.xlsx
@@ -7,9 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Genotype" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GenotypeCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Fish" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Allele" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Gene" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ExposureEvent" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ChemicalEntity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Phenotype" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Concentration" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="DevelopmentalStage" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="FishExposureOutcome" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,6 +422,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>allele</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>zygosity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -426,104 +479,320 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>fish</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>exposure_event</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>variation_type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>exposure_substance</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>exposure_type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>concentration</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>start_stage</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>end_stage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_numeric_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_numeric_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>
